--- a/Data/Data_Extracted_Main - Copy.xlsx
+++ b/Data/Data_Extracted_Main - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B7657-57BE-41FE-96AC-75407B476C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD5926-219B-4A17-88B9-94804B55CD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Case Reference</t>
-  </si>
-  <si>
-    <t>Clients Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Clients Correspondinig Address</t>
   </si>
@@ -51,27 +45,18 @@
     <t>Branch</t>
   </si>
   <si>
-    <t>Client(s) gender (Male/Female)</t>
-  </si>
-  <si>
     <t>Client(s) Mobile Number</t>
   </si>
   <si>
     <t>Client(s) email address</t>
   </si>
   <si>
-    <t>Clients(s) date of birth</t>
-  </si>
-  <si>
     <t>Tenure of the Property</t>
   </si>
   <si>
     <t>Fees</t>
   </si>
   <si>
-    <t>CON/2042/19</t>
-  </si>
-  <si>
     <t>Seller1Name</t>
   </si>
   <si>
@@ -130,6 +115,66 @@
   </si>
   <si>
     <t>Referral and Referral fee</t>
+  </si>
+  <si>
+    <t>Client(1) gender (Male/Female)</t>
+  </si>
+  <si>
+    <t>Clients(1) date of birth</t>
+  </si>
+  <si>
+    <t>Clients(2) date of birth</t>
+  </si>
+  <si>
+    <t>Client(2) gender (Male/Female)</t>
+  </si>
+  <si>
+    <t>Clients(1)Name</t>
+  </si>
+  <si>
+    <t>Clients(2)Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bot Name</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Triggered by</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Server Ip</t>
+  </si>
+  <si>
+    <t>Ref no (unique id)</t>
+  </si>
+  <si>
+    <t>CASE Status</t>
+  </si>
+  <si>
+    <t>Comment(business exception)</t>
+  </si>
+  <si>
+    <t>BOT RUN Status</t>
+  </si>
+  <si>
+    <t>Remark(System Exception)</t>
   </si>
 </sst>
 </file>
@@ -153,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,12 +206,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,24 +508,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56" customWidth="1"/>
-    <col min="8" max="8" width="44" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" customWidth="1"/>
@@ -490,113 +551,156 @@
     <col min="33" max="33" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="AW1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="AX1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
